--- a/a.xlsx
+++ b/a.xlsx
@@ -36,12 +36,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +68,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -338,43 +352,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
